--- a/reports/result.xlsx
+++ b/reports/result.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,140 +1182,6 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Log the CPU timestamp at MCTL_MainFunction100uS for 100 times</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Values are filled to an array</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>As Expected</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Calculate the Minimum of the difference between timestamps &gt;&gt; MIN(t(n)-t(n-1))</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>The Minimum value is larger than 90uS</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Error, Min Value = 82uS</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>NOK</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Calculate the Maximum of the difference between timestamps &gt;&gt; MAX(t(n)-t(n-1))</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>The Maximum value is Less than 110uS</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>As Exected, Max Value = 120uS</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Calculate the Average of the difference between timestamps &gt;&gt; AVG(t(n)-t(n-1))</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Average value is between 90 and 110 uS</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Average Value = 100.03092783505154uS</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports/result.xlsx
+++ b/reports/result.xlsx
@@ -424,15 +424,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="63" customWidth="1" min="2" max="2"/>
-    <col width="80" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="38" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
